--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sivab\git\saucedemo\saucedemo\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunilduvvuru/Documents/eclipse-workspace/saucedemo/src/test/resources/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976E2A3A-FD2A-4A84-A7D0-7EAD6FF4C749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06BA289-E28D-D640-B160-2E82B7B29739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sauce" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Test_04</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>standard_user</t>
   </si>
 </sst>
 </file>
@@ -378,85 +384,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="18.19921875" customWidth="1"/>
-    <col min="3" max="3" width="18.296875" customWidth="1"/>
-    <col min="4" max="4" width="21.796875" customWidth="1"/>
+    <col min="1" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -464,7 +473,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToWidth="0" pageOrder="overThenDown"/>
+  <pageSetup fitToWidth="0" pageOrder="overThenDown" orientation="portrait"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1675615256" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
